--- a/control_desagregado.xlsx
+++ b/control_desagregado.xlsx
@@ -618,7 +618,7 @@
         <v>85</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="10">
@@ -717,7 +717,7 @@
         <v>94</v>
       </c>
       <c r="C18" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="19">
